--- a/2025/index_2025.xlsx
+++ b/2025/index_2025.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/543990dc0ff5ce14/Research/populism-index/2025/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="11_0EB97F25516A1C0E62355476585DCE3A874DDE00" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A821AFDF-88A2-47FF-B563-162D5CBCF20F}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="11_0EB97F25516A1C0E62355476585DCE3A874DDE00" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{21E6A151-9181-4454-B06E-5AC8037F62ED}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="26115" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$AH$485</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -1077,16 +1080,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:AH485"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A416" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A99" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AH429" sqref="AH429"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1190,7 +1194,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>34</v>
       </c>
@@ -1294,7 +1298,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>40</v>
       </c>
@@ -1350,7 +1354,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>46</v>
       </c>
@@ -1430,7 +1434,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>51</v>
       </c>
@@ -1534,7 +1538,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>56</v>
       </c>
@@ -1638,7 +1642,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>61</v>
       </c>
@@ -1742,7 +1746,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>66</v>
       </c>
@@ -1822,7 +1826,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>72</v>
       </c>
@@ -1902,7 +1906,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>77</v>
       </c>
@@ -1982,7 +1986,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>82</v>
       </c>
@@ -2062,7 +2066,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>87</v>
       </c>
@@ -2118,7 +2122,7 @@
         <v>36.57516972400974</v>
       </c>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>90</v>
       </c>
@@ -2195,7 +2199,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>95</v>
       </c>
@@ -2275,7 +2279,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>100</v>
       </c>
@@ -2355,7 +2359,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>105</v>
       </c>
@@ -2459,7 +2463,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="17" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>110</v>
       </c>
@@ -2539,7 +2543,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="18" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>115</v>
       </c>
@@ -2619,7 +2623,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="19" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>120</v>
       </c>
@@ -2699,7 +2703,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="20" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>125</v>
       </c>
@@ -2803,7 +2807,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="21" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>130</v>
       </c>
@@ -2859,7 +2863,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="22" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>135</v>
       </c>
@@ -2939,7 +2943,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="23" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>140</v>
       </c>
@@ -3043,7 +3047,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="24" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>34</v>
       </c>
@@ -3147,7 +3151,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="25" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>40</v>
       </c>
@@ -3251,7 +3255,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="26" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>46</v>
       </c>
@@ -3355,7 +3359,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="27" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>51</v>
       </c>
@@ -3459,7 +3463,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="28" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>56</v>
       </c>
@@ -3563,7 +3567,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="29" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>61</v>
       </c>
@@ -3667,7 +3671,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="30" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>66</v>
       </c>
@@ -3771,7 +3775,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="31" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>72</v>
       </c>
@@ -3875,7 +3879,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="32" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>77</v>
       </c>
@@ -3937,7 +3941,7 @@
         <v>32.052461325207382</v>
       </c>
     </row>
-    <row r="33" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>82</v>
       </c>
@@ -4041,7 +4045,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="34" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>87</v>
       </c>
@@ -4145,7 +4149,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="35" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>90</v>
       </c>
@@ -4249,7 +4253,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="36" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>95</v>
       </c>
@@ -4353,7 +4357,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="37" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>100</v>
       </c>
@@ -4457,7 +4461,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="38" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>105</v>
       </c>
@@ -4561,7 +4565,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="39" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>110</v>
       </c>
@@ -4629,7 +4633,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="40" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>115</v>
       </c>
@@ -4733,7 +4737,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="41" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>120</v>
       </c>
@@ -4837,7 +4841,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="42" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>125</v>
       </c>
@@ -4941,7 +4945,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="43" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>130</v>
       </c>
@@ -5045,7 +5049,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="44" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>135</v>
       </c>
@@ -5149,7 +5153,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="45" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>140</v>
       </c>
@@ -5253,7 +5257,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="46" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>34</v>
       </c>
@@ -5357,7 +5361,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="47" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>40</v>
       </c>
@@ -5461,7 +5465,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="48" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>46</v>
       </c>
@@ -5565,7 +5569,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="49" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>51</v>
       </c>
@@ -5669,7 +5673,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="50" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>56</v>
       </c>
@@ -5773,7 +5777,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="51" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>61</v>
       </c>
@@ -5877,7 +5881,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="52" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>66</v>
       </c>
@@ -5981,7 +5985,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="53" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>72</v>
       </c>
@@ -6085,7 +6089,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="54" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>77</v>
       </c>
@@ -6147,7 +6151,7 @@
         <v>35.878124206228733</v>
       </c>
     </row>
-    <row r="55" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>82</v>
       </c>
@@ -6251,7 +6255,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="56" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>87</v>
       </c>
@@ -6355,7 +6359,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="57" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>90</v>
       </c>
@@ -6459,7 +6463,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="58" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>95</v>
       </c>
@@ -6563,7 +6567,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="59" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>100</v>
       </c>
@@ -6667,7 +6671,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="60" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>105</v>
       </c>
@@ -6771,7 +6775,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="61" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>110</v>
       </c>
@@ -6875,7 +6879,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="62" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>115</v>
       </c>
@@ -6979,7 +6983,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="63" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>120</v>
       </c>
@@ -7083,7 +7087,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="64" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>125</v>
       </c>
@@ -7151,7 +7155,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="65" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>130</v>
       </c>
@@ -7255,7 +7259,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="66" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>135</v>
       </c>
@@ -7359,7 +7363,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="67" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>140</v>
       </c>
@@ -7463,7 +7467,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="68" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>34</v>
       </c>
@@ -7567,7 +7571,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="69" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>40</v>
       </c>
@@ -7671,7 +7675,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="70" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>46</v>
       </c>
@@ -7775,7 +7779,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="71" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>51</v>
       </c>
@@ -7879,7 +7883,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="72" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>56</v>
       </c>
@@ -7983,7 +7987,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="73" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>61</v>
       </c>
@@ -8087,7 +8091,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="74" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>66</v>
       </c>
@@ -8191,7 +8195,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="75" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>72</v>
       </c>
@@ -8295,7 +8299,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="76" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>77</v>
       </c>
@@ -8357,7 +8361,7 @@
         <v>33.645845930977522</v>
       </c>
     </row>
-    <row r="77" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>82</v>
       </c>
@@ -8461,7 +8465,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="78" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>87</v>
       </c>
@@ -8565,7 +8569,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="79" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>90</v>
       </c>
@@ -8669,7 +8673,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="80" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>95</v>
       </c>
@@ -8773,7 +8777,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="81" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>100</v>
       </c>
@@ -8877,7 +8881,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="82" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>105</v>
       </c>
@@ -8981,7 +8985,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="83" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>110</v>
       </c>
@@ -9085,7 +9089,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="84" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>115</v>
       </c>
@@ -9189,7 +9193,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="85" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>120</v>
       </c>
@@ -9293,7 +9297,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="86" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>125</v>
       </c>
@@ -9397,7 +9401,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="87" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>130</v>
       </c>
@@ -9501,7 +9505,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="88" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>135</v>
       </c>
@@ -9605,7 +9609,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="89" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>140</v>
       </c>
@@ -9709,7 +9713,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="90" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>34</v>
       </c>
@@ -9813,7 +9817,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="91" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>40</v>
       </c>
@@ -9917,7 +9921,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="92" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>46</v>
       </c>
@@ -10021,7 +10025,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="93" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>51</v>
       </c>
@@ -10125,7 +10129,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="94" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>56</v>
       </c>
@@ -10229,7 +10233,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="95" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>61</v>
       </c>
@@ -10291,7 +10295,7 @@
         <v>34.970667996718483</v>
       </c>
     </row>
-    <row r="96" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>66</v>
       </c>
@@ -10395,7 +10399,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="97" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>72</v>
       </c>
@@ -10499,7 +10503,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="98" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>77</v>
       </c>
@@ -10603,7 +10607,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="99" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>82</v>
       </c>
@@ -10707,7 +10711,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="100" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>87</v>
       </c>
@@ -10811,7 +10815,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="101" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>90</v>
       </c>
@@ -10915,7 +10919,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="102" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>95</v>
       </c>
@@ -11019,7 +11023,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="103" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>100</v>
       </c>
@@ -11123,7 +11127,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="104" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>105</v>
       </c>
@@ -11227,7 +11231,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="105" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>110</v>
       </c>
@@ -11331,7 +11335,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="106" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>115</v>
       </c>
@@ -11435,7 +11439,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="107" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>120</v>
       </c>
@@ -11539,7 +11543,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="108" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>125</v>
       </c>
@@ -11643,7 +11647,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="109" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>130</v>
       </c>
@@ -11747,7 +11751,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="110" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>135</v>
       </c>
@@ -11851,7 +11855,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="111" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>140</v>
       </c>
@@ -11955,7 +11959,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="112" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>34</v>
       </c>
@@ -12059,7 +12063,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="113" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>40</v>
       </c>
@@ -12163,7 +12167,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="114" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>46</v>
       </c>
@@ -12225,7 +12229,7 @@
         <v>29.432185825385819</v>
       </c>
     </row>
-    <row r="115" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>51</v>
       </c>
@@ -12329,7 +12333,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="116" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>56</v>
       </c>
@@ -12433,7 +12437,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="117" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>61</v>
       </c>
@@ -12495,7 +12499,7 @@
         <v>36.473294590336941</v>
       </c>
     </row>
-    <row r="118" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>66</v>
       </c>
@@ -12599,7 +12603,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="119" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>72</v>
       </c>
@@ -12703,7 +12707,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="120" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>77</v>
       </c>
@@ -12807,7 +12811,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="121" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>82</v>
       </c>
@@ -12911,7 +12915,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="122" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>87</v>
       </c>
@@ -13015,7 +13019,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="123" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>90</v>
       </c>
@@ -13119,7 +13123,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="124" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>95</v>
       </c>
@@ -13223,7 +13227,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="125" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>100</v>
       </c>
@@ -13327,7 +13331,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="126" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>105</v>
       </c>
@@ -13431,7 +13435,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="127" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>110</v>
       </c>
@@ -13535,7 +13539,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="128" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>115</v>
       </c>
@@ -13639,7 +13643,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="129" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>120</v>
       </c>
@@ -13743,7 +13747,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="130" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>125</v>
       </c>
@@ -13847,7 +13851,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="131" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>130</v>
       </c>
@@ -13951,7 +13955,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="132" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>135</v>
       </c>
@@ -14055,7 +14059,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="133" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>140</v>
       </c>
@@ -14159,7 +14163,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="134" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>34</v>
       </c>
@@ -14263,7 +14267,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="135" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>40</v>
       </c>
@@ -14367,7 +14371,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="136" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>46</v>
       </c>
@@ -14429,7 +14433,7 @@
         <v>30.167991836759221</v>
       </c>
     </row>
-    <row r="137" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>51</v>
       </c>
@@ -14533,7 +14537,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="138" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>56</v>
       </c>
@@ -14637,7 +14641,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="139" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>61</v>
       </c>
@@ -14699,7 +14703,7 @@
         <v>35.035398011324787</v>
       </c>
     </row>
-    <row r="140" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>66</v>
       </c>
@@ -14803,7 +14807,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="141" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>72</v>
       </c>
@@ -14907,7 +14911,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="142" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>77</v>
       </c>
@@ -14969,7 +14973,7 @@
         <v>30.747048775501451</v>
       </c>
     </row>
-    <row r="143" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>82</v>
       </c>
@@ -15073,7 +15077,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="144" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>87</v>
       </c>
@@ -15177,7 +15181,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="145" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>90</v>
       </c>
@@ -15254,7 +15258,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="146" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>95</v>
       </c>
@@ -15358,7 +15362,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="147" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>100</v>
       </c>
@@ -15462,7 +15466,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="148" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>105</v>
       </c>
@@ -15566,7 +15570,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="149" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>110</v>
       </c>
@@ -15670,7 +15674,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="150" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>115</v>
       </c>
@@ -15774,7 +15778,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="151" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>120</v>
       </c>
@@ -15878,7 +15882,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="152" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>125</v>
       </c>
@@ -15982,7 +15986,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="153" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>130</v>
       </c>
@@ -16086,7 +16090,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="154" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>135</v>
       </c>
@@ -16190,7 +16194,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="155" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>140</v>
       </c>
@@ -16294,7 +16298,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="156" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>34</v>
       </c>
@@ -16398,7 +16402,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="157" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>40</v>
       </c>
@@ -16502,7 +16506,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="158" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>46</v>
       </c>
@@ -16606,7 +16610,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="159" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>51</v>
       </c>
@@ -16710,7 +16714,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="160" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>56</v>
       </c>
@@ -16814,7 +16818,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="161" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>61</v>
       </c>
@@ -16876,7 +16880,7 @@
         <v>32.786183849662187</v>
       </c>
     </row>
-    <row r="162" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>66</v>
       </c>
@@ -16980,7 +16984,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="163" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>72</v>
       </c>
@@ -17084,7 +17088,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="164" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>77</v>
       </c>
@@ -17146,7 +17150,7 @@
         <v>28.90182946067733</v>
       </c>
     </row>
-    <row r="165" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>82</v>
       </c>
@@ -17250,7 +17254,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="166" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>87</v>
       </c>
@@ -17354,7 +17358,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="167" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>90</v>
       </c>
@@ -17458,7 +17462,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="168" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>95</v>
       </c>
@@ -17562,7 +17566,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="169" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>100</v>
       </c>
@@ -17666,7 +17670,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="170" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>105</v>
       </c>
@@ -17770,7 +17774,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="171" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>110</v>
       </c>
@@ -17874,7 +17878,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="172" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>115</v>
       </c>
@@ -17978,7 +17982,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="173" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>120</v>
       </c>
@@ -18082,7 +18086,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="174" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>125</v>
       </c>
@@ -18186,7 +18190,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="175" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>130</v>
       </c>
@@ -18290,7 +18294,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="176" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>135</v>
       </c>
@@ -18394,7 +18398,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="177" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>140</v>
       </c>
@@ -18498,7 +18502,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="178" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>34</v>
       </c>
@@ -18602,7 +18606,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="179" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>40</v>
       </c>
@@ -18706,7 +18710,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="180" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>46</v>
       </c>
@@ -18810,7 +18814,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="181" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>51</v>
       </c>
@@ -18914,7 +18918,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="182" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>56</v>
       </c>
@@ -19018,7 +19022,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="183" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>61</v>
       </c>
@@ -19080,7 +19084,7 @@
         <v>28.574840969418929</v>
       </c>
     </row>
-    <row r="184" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>66</v>
       </c>
@@ -19184,7 +19188,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="185" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>72</v>
       </c>
@@ -19288,7 +19292,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="186" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>77</v>
       </c>
@@ -19392,7 +19396,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="187" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>82</v>
       </c>
@@ -19496,7 +19500,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="188" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>87</v>
       </c>
@@ -19600,7 +19604,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="189" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>90</v>
       </c>
@@ -19704,7 +19708,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="190" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>95</v>
       </c>
@@ -19808,7 +19812,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="191" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>100</v>
       </c>
@@ -19912,7 +19916,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="192" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>105</v>
       </c>
@@ -20016,7 +20020,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="193" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>110</v>
       </c>
@@ -20120,7 +20124,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="194" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>115</v>
       </c>
@@ -20224,7 +20228,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="195" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>120</v>
       </c>
@@ -20328,7 +20332,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="196" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>125</v>
       </c>
@@ -20432,7 +20436,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="197" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>130</v>
       </c>
@@ -20536,7 +20540,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="198" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>135</v>
       </c>
@@ -20640,7 +20644,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="199" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>140</v>
       </c>
@@ -20744,7 +20748,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="200" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>34</v>
       </c>
@@ -20848,7 +20852,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="201" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>40</v>
       </c>
@@ -20952,7 +20956,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="202" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>46</v>
       </c>
@@ -21056,7 +21060,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="203" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>51</v>
       </c>
@@ -21160,7 +21164,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="204" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>56</v>
       </c>
@@ -21264,7 +21268,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="205" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>61</v>
       </c>
@@ -21326,7 +21330,7 @@
         <v>28.848361158328661</v>
       </c>
     </row>
-    <row r="206" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>66</v>
       </c>
@@ -21430,7 +21434,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="207" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>72</v>
       </c>
@@ -21534,7 +21538,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="208" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>77</v>
       </c>
@@ -21638,7 +21642,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="209" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>82</v>
       </c>
@@ -21742,7 +21746,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="210" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>87</v>
       </c>
@@ -21846,7 +21850,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="211" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>90</v>
       </c>
@@ -21950,7 +21954,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="212" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>95</v>
       </c>
@@ -22054,7 +22058,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="213" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>100</v>
       </c>
@@ -22158,7 +22162,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="214" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>105</v>
       </c>
@@ -22262,7 +22266,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="215" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>110</v>
       </c>
@@ -22366,7 +22370,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="216" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>115</v>
       </c>
@@ -22470,7 +22474,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="217" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>120</v>
       </c>
@@ -22574,7 +22578,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="218" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>125</v>
       </c>
@@ -22678,7 +22682,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="219" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>130</v>
       </c>
@@ -22782,7 +22786,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="220" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>135</v>
       </c>
@@ -22886,7 +22890,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="221" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>140</v>
       </c>
@@ -22990,7 +22994,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="222" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>34</v>
       </c>
@@ -23094,7 +23098,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="223" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>40</v>
       </c>
@@ -23198,7 +23202,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="224" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>46</v>
       </c>
@@ -23302,7 +23306,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="225" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>51</v>
       </c>
@@ -23406,7 +23410,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="226" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>56</v>
       </c>
@@ -23510,7 +23514,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="227" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>61</v>
       </c>
@@ -23572,7 +23576,7 @@
         <v>28.442940361288251</v>
       </c>
     </row>
-    <row r="228" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>66</v>
       </c>
@@ -23676,7 +23680,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="229" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>72</v>
       </c>
@@ -23780,7 +23784,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="230" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>77</v>
       </c>
@@ -23884,7 +23888,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="231" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>82</v>
       </c>
@@ -23988,7 +23992,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="232" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>87</v>
       </c>
@@ -24092,7 +24096,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="233" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>90</v>
       </c>
@@ -24196,7 +24200,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="234" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>95</v>
       </c>
@@ -24300,7 +24304,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="235" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>100</v>
       </c>
@@ -24404,7 +24408,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="236" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>105</v>
       </c>
@@ -24508,7 +24512,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="237" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>110</v>
       </c>
@@ -24612,7 +24616,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="238" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>115</v>
       </c>
@@ -24716,7 +24720,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="239" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>120</v>
       </c>
@@ -24778,7 +24782,7 @@
         <v>21.377464975065511</v>
       </c>
     </row>
-    <row r="240" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>125</v>
       </c>
@@ -24882,7 +24886,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="241" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>130</v>
       </c>
@@ -24986,7 +24990,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="242" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>135</v>
       </c>
@@ -25090,7 +25094,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="243" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>140</v>
       </c>
@@ -25194,7 +25198,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="244" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>34</v>
       </c>
@@ -25298,7 +25302,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="245" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>40</v>
       </c>
@@ -25402,7 +25406,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="246" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>46</v>
       </c>
@@ -25506,7 +25510,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="247" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>51</v>
       </c>
@@ -25610,7 +25614,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="248" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>56</v>
       </c>
@@ -25714,7 +25718,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="249" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>61</v>
       </c>
@@ -25776,7 +25780,7 @@
         <v>28.414615051625709</v>
       </c>
     </row>
-    <row r="250" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>66</v>
       </c>
@@ -25880,7 +25884,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="251" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>72</v>
       </c>
@@ -25984,7 +25988,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="252" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>77</v>
       </c>
@@ -26088,7 +26092,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="253" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>82</v>
       </c>
@@ -26192,7 +26196,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="254" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>87</v>
       </c>
@@ -26296,7 +26300,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="255" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>90</v>
       </c>
@@ -26400,7 +26404,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="256" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>95</v>
       </c>
@@ -26504,7 +26508,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="257" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>100</v>
       </c>
@@ -26608,7 +26612,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="258" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>105</v>
       </c>
@@ -26712,7 +26716,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="259" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>110</v>
       </c>
@@ -26816,7 +26820,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="260" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>115</v>
       </c>
@@ -26920,7 +26924,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="261" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>120</v>
       </c>
@@ -26982,7 +26986,7 @@
         <v>21.638715919928998</v>
       </c>
     </row>
-    <row r="262" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>125</v>
       </c>
@@ -27086,7 +27090,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="263" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>130</v>
       </c>
@@ -27190,7 +27194,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="264" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>135</v>
       </c>
@@ -27294,7 +27298,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="265" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>140</v>
       </c>
@@ -27398,7 +27402,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="266" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>34</v>
       </c>
@@ -27502,7 +27506,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="267" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>40</v>
       </c>
@@ -27606,7 +27610,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="268" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>46</v>
       </c>
@@ -27710,7 +27714,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="269" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>51</v>
       </c>
@@ -27814,7 +27818,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="270" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>56</v>
       </c>
@@ -27918,7 +27922,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="271" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>61</v>
       </c>
@@ -28022,7 +28026,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="272" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>66</v>
       </c>
@@ -28126,7 +28130,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="273" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>72</v>
       </c>
@@ -28230,7 +28234,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="274" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>77</v>
       </c>
@@ -28334,7 +28338,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="275" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>82</v>
       </c>
@@ -28438,7 +28442,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="276" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>87</v>
       </c>
@@ -28542,7 +28546,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="277" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>90</v>
       </c>
@@ -28646,7 +28650,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="278" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>95</v>
       </c>
@@ -28750,7 +28754,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="279" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>100</v>
       </c>
@@ -28854,7 +28858,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="280" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>105</v>
       </c>
@@ -28958,7 +28962,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="281" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>110</v>
       </c>
@@ -29062,7 +29066,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="282" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>115</v>
       </c>
@@ -29166,7 +29170,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="283" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>120</v>
       </c>
@@ -29228,7 +29232,7 @@
         <v>22.061912303492381</v>
       </c>
     </row>
-    <row r="284" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>125</v>
       </c>
@@ -29332,7 +29336,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="285" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>130</v>
       </c>
@@ -29436,7 +29440,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="286" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>135</v>
       </c>
@@ -29540,7 +29544,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="287" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>140</v>
       </c>
@@ -29644,7 +29648,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="288" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>34</v>
       </c>
@@ -29748,7 +29752,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="289" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>40</v>
       </c>
@@ -29852,7 +29856,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="290" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>46</v>
       </c>
@@ -29956,7 +29960,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="291" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>51</v>
       </c>
@@ -30060,7 +30064,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="292" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>56</v>
       </c>
@@ -30164,7 +30168,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="293" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>61</v>
       </c>
@@ -30268,7 +30272,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="294" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>66</v>
       </c>
@@ -30372,7 +30376,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="295" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>72</v>
       </c>
@@ -30476,7 +30480,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="296" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>77</v>
       </c>
@@ -30580,7 +30584,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="297" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>82</v>
       </c>
@@ -30684,7 +30688,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="298" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>87</v>
       </c>
@@ -30788,7 +30792,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="299" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>90</v>
       </c>
@@ -30892,7 +30896,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="300" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>95</v>
       </c>
@@ -30996,7 +31000,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="301" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>100</v>
       </c>
@@ -31100,7 +31104,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="302" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>105</v>
       </c>
@@ -31204,7 +31208,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="303" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>110</v>
       </c>
@@ -31308,7 +31312,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="304" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
         <v>115</v>
       </c>
@@ -31412,7 +31416,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="305" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
         <v>120</v>
       </c>
@@ -31474,7 +31478,7 @@
         <v>23.03832692908615</v>
       </c>
     </row>
-    <row r="306" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
         <v>125</v>
       </c>
@@ -31578,7 +31582,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="307" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>130</v>
       </c>
@@ -31682,7 +31686,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="308" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>135</v>
       </c>
@@ -31786,7 +31790,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="309" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
         <v>140</v>
       </c>
@@ -31890,7 +31894,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="310" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
         <v>34</v>
       </c>
@@ -31994,7 +31998,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="311" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
         <v>40</v>
       </c>
@@ -32098,7 +32102,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="312" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
         <v>46</v>
       </c>
@@ -32202,7 +32206,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="313" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
         <v>51</v>
       </c>
@@ -32306,7 +32310,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="314" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
         <v>56</v>
       </c>
@@ -32410,7 +32414,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="315" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
         <v>61</v>
       </c>
@@ -32514,7 +32518,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="316" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
         <v>66</v>
       </c>
@@ -32618,7 +32622,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="317" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
         <v>72</v>
       </c>
@@ -32722,7 +32726,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="318" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
         <v>77</v>
       </c>
@@ -32826,7 +32830,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="319" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
         <v>82</v>
       </c>
@@ -32930,7 +32934,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="320" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
         <v>87</v>
       </c>
@@ -33034,7 +33038,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="321" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
         <v>90</v>
       </c>
@@ -33138,7 +33142,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="322" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
         <v>95</v>
       </c>
@@ -33242,7 +33246,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="323" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
         <v>100</v>
       </c>
@@ -33346,7 +33350,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="324" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
         <v>105</v>
       </c>
@@ -33450,7 +33454,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="325" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
         <v>110</v>
       </c>
@@ -33554,7 +33558,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="326" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
         <v>115</v>
       </c>
@@ -33658,7 +33662,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="327" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
         <v>120</v>
       </c>
@@ -33762,7 +33766,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="328" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
         <v>125</v>
       </c>
@@ -33866,7 +33870,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="329" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
         <v>130</v>
       </c>
@@ -33970,7 +33974,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="330" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
         <v>135</v>
       </c>
@@ -34074,7 +34078,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="331" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
         <v>140</v>
       </c>
@@ -34178,7 +34182,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="332" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
         <v>34</v>
       </c>
@@ -34282,7 +34286,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="333" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
         <v>40</v>
       </c>
@@ -34386,7 +34390,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="334" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
         <v>46</v>
       </c>
@@ -34490,7 +34494,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="335" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
         <v>51</v>
       </c>
@@ -34594,7 +34598,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="336" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
         <v>56</v>
       </c>
@@ -34698,7 +34702,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="337" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
         <v>61</v>
       </c>
@@ -34802,7 +34806,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="338" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
         <v>66</v>
       </c>
@@ -34906,7 +34910,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="339" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
         <v>72</v>
       </c>
@@ -35010,7 +35014,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="340" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
         <v>77</v>
       </c>
@@ -35114,7 +35118,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="341" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
         <v>82</v>
       </c>
@@ -35218,7 +35222,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="342" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
         <v>87</v>
       </c>
@@ -35322,7 +35326,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="343" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
         <v>90</v>
       </c>
@@ -35426,7 +35430,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="344" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
         <v>95</v>
       </c>
@@ -35530,7 +35534,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="345" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
         <v>100</v>
       </c>
@@ -35634,7 +35638,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="346" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
         <v>105</v>
       </c>
@@ -35738,7 +35742,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="347" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
         <v>110</v>
       </c>
@@ -35842,7 +35846,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="348" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
         <v>115</v>
       </c>
@@ -35946,7 +35950,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="349" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
         <v>120</v>
       </c>
@@ -36050,7 +36054,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="350" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
         <v>125</v>
       </c>
@@ -36154,7 +36158,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="351" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
         <v>130</v>
       </c>
@@ -36258,7 +36262,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="352" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
         <v>135</v>
       </c>
@@ -36362,7 +36366,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="353" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
         <v>140</v>
       </c>
@@ -36466,7 +36470,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="354" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
         <v>34</v>
       </c>
@@ -36570,7 +36574,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="355" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
         <v>40</v>
       </c>
@@ -36674,7 +36678,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="356" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
         <v>46</v>
       </c>
@@ -36778,7 +36782,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="357" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
         <v>51</v>
       </c>
@@ -36882,7 +36886,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="358" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
         <v>56</v>
       </c>
@@ -36986,7 +36990,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="359" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
         <v>61</v>
       </c>
@@ -37090,7 +37094,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="360" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
         <v>66</v>
       </c>
@@ -37194,7 +37198,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="361" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
         <v>72</v>
       </c>
@@ -37298,7 +37302,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="362" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
         <v>77</v>
       </c>
@@ -37402,7 +37406,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="363" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
         <v>82</v>
       </c>
@@ -37506,7 +37510,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="364" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
         <v>87</v>
       </c>
@@ -37610,7 +37614,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="365" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
         <v>90</v>
       </c>
@@ -37714,7 +37718,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="366" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
         <v>95</v>
       </c>
@@ -37818,7 +37822,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="367" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
         <v>100</v>
       </c>
@@ -37922,7 +37926,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="368" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
         <v>105</v>
       </c>
@@ -38026,7 +38030,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="369" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
         <v>110</v>
       </c>
@@ -38130,7 +38134,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="370" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
         <v>115</v>
       </c>
@@ -38234,7 +38238,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="371" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
         <v>120</v>
       </c>
@@ -38338,7 +38342,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="372" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
         <v>125</v>
       </c>
@@ -38442,7 +38446,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="373" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
         <v>130</v>
       </c>
@@ -38546,7 +38550,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="374" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
         <v>135</v>
       </c>
@@ -38650,7 +38654,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="375" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
         <v>140</v>
       </c>
@@ -38754,7 +38758,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="376" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
         <v>34</v>
       </c>
@@ -38858,7 +38862,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="377" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
         <v>40</v>
       </c>
@@ -38962,7 +38966,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="378" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
         <v>46</v>
       </c>
@@ -39066,7 +39070,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="379" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
         <v>51</v>
       </c>
@@ -39170,7 +39174,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="380" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
         <v>56</v>
       </c>
@@ -39274,7 +39278,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="381" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
         <v>61</v>
       </c>
@@ -39378,7 +39382,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="382" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
         <v>66</v>
       </c>
@@ -39482,7 +39486,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="383" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
         <v>72</v>
       </c>
@@ -39586,7 +39590,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="384" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
         <v>77</v>
       </c>
@@ -39690,7 +39694,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="385" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
         <v>82</v>
       </c>
@@ -39794,7 +39798,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="386" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
         <v>87</v>
       </c>
@@ -39898,7 +39902,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="387" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
         <v>90</v>
       </c>
@@ -39960,7 +39964,7 @@
         <v>25.250042094950469</v>
       </c>
     </row>
-    <row r="388" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
         <v>95</v>
       </c>
@@ -40064,7 +40068,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="389" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
         <v>100</v>
       </c>
@@ -40168,7 +40172,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="390" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
         <v>105</v>
       </c>
@@ -40272,7 +40276,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="391" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
         <v>110</v>
       </c>
@@ -40376,7 +40380,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="392" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
         <v>115</v>
       </c>
@@ -40480,7 +40484,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="393" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
         <v>120</v>
       </c>
@@ -40584,7 +40588,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="394" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
         <v>125</v>
       </c>
@@ -40688,7 +40692,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="395" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
         <v>130</v>
       </c>
@@ -40792,7 +40796,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="396" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
         <v>135</v>
       </c>
@@ -40896,7 +40900,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="397" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
         <v>140</v>
       </c>
@@ -41000,7 +41004,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="398" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
         <v>34</v>
       </c>
@@ -41104,7 +41108,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="399" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
         <v>40</v>
       </c>
@@ -41208,7 +41212,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="400" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
         <v>46</v>
       </c>
@@ -41312,7 +41316,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="401" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
         <v>51</v>
       </c>
@@ -41416,7 +41420,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="402" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
         <v>56</v>
       </c>
@@ -41520,7 +41524,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="403" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
         <v>61</v>
       </c>
@@ -41624,7 +41628,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="404" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A404" t="s">
         <v>66</v>
       </c>
@@ -41728,7 +41732,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="405" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
         <v>72</v>
       </c>
@@ -41832,7 +41836,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="406" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A406" t="s">
         <v>77</v>
       </c>
@@ -41936,7 +41940,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="407" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A407" t="s">
         <v>82</v>
       </c>
@@ -42040,7 +42044,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="408" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A408" t="s">
         <v>87</v>
       </c>
@@ -42144,7 +42148,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="409" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A409" t="s">
         <v>90</v>
       </c>
@@ -42206,7 +42210,7 @@
         <v>26.255330204163069</v>
       </c>
     </row>
-    <row r="410" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A410" t="s">
         <v>95</v>
       </c>
@@ -42310,7 +42314,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="411" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A411" t="s">
         <v>100</v>
       </c>
@@ -42414,7 +42418,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="412" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A412" t="s">
         <v>105</v>
       </c>
@@ -42518,7 +42522,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="413" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A413" t="s">
         <v>110</v>
       </c>
@@ -42622,7 +42626,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="414" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A414" t="s">
         <v>115</v>
       </c>
@@ -42726,7 +42730,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="415" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A415" t="s">
         <v>120</v>
       </c>
@@ -42830,7 +42834,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="416" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A416" t="s">
         <v>125</v>
       </c>
@@ -42934,7 +42938,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="417" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A417" t="s">
         <v>130</v>
       </c>
@@ -43038,7 +43042,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="418" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A418" t="s">
         <v>135</v>
       </c>
@@ -43142,7 +43146,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="419" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A419" t="s">
         <v>140</v>
       </c>
@@ -43246,7 +43250,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="420" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A420" t="s">
         <v>34</v>
       </c>
@@ -43350,7 +43354,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="421" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A421" t="s">
         <v>40</v>
       </c>
@@ -43454,7 +43458,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="422" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A422" t="s">
         <v>46</v>
       </c>
@@ -43558,7 +43562,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="423" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A423" t="s">
         <v>51</v>
       </c>
@@ -43662,7 +43666,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="424" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A424" t="s">
         <v>56</v>
       </c>
@@ -43766,7 +43770,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="425" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A425" t="s">
         <v>61</v>
       </c>
@@ -43870,7 +43874,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="426" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A426" t="s">
         <v>66</v>
       </c>
@@ -43974,7 +43978,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="427" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A427" t="s">
         <v>72</v>
       </c>
@@ -44078,7 +44082,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="428" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A428" t="s">
         <v>77</v>
       </c>
@@ -44182,7 +44186,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="429" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A429" t="s">
         <v>82</v>
       </c>
@@ -44286,7 +44290,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="430" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A430" t="s">
         <v>87</v>
       </c>
@@ -44390,7 +44394,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="431" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A431" t="s">
         <v>90</v>
       </c>
@@ -44452,7 +44456,7 @@
         <v>25.914216057516981</v>
       </c>
     </row>
-    <row r="432" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A432" t="s">
         <v>95</v>
       </c>
@@ -44556,7 +44560,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="433" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A433" t="s">
         <v>100</v>
       </c>
@@ -44660,7 +44664,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="434" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A434" t="s">
         <v>105</v>
       </c>
@@ -44764,7 +44768,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="435" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A435" t="s">
         <v>110</v>
       </c>
@@ -44868,7 +44872,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="436" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A436" t="s">
         <v>115</v>
       </c>
@@ -44972,7 +44976,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="437" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A437" t="s">
         <v>120</v>
       </c>
@@ -45076,7 +45080,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="438" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A438" t="s">
         <v>125</v>
       </c>
@@ -45138,7 +45142,7 @@
         <v>12.32567096838827</v>
       </c>
     </row>
-    <row r="439" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A439" t="s">
         <v>130</v>
       </c>
@@ -45242,7 +45246,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="440" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A440" t="s">
         <v>135</v>
       </c>
@@ -45346,7 +45350,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="441" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A441" t="s">
         <v>140</v>
       </c>
@@ -45450,7 +45454,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="442" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A442" t="s">
         <v>34</v>
       </c>
@@ -45554,7 +45558,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="443" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A443" t="s">
         <v>40</v>
       </c>
@@ -45658,7 +45662,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="444" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A444" t="s">
         <v>46</v>
       </c>
@@ -45762,7 +45766,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="445" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A445" t="s">
         <v>51</v>
       </c>
@@ -45824,7 +45828,7 @@
         <v>28.79743305016548</v>
       </c>
     </row>
-    <row r="446" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A446" t="s">
         <v>56</v>
       </c>
@@ -45928,7 +45932,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="447" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A447" t="s">
         <v>61</v>
       </c>
@@ -46032,7 +46036,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="448" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A448" t="s">
         <v>66</v>
       </c>
@@ -46136,7 +46140,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="449" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A449" t="s">
         <v>72</v>
       </c>
@@ -46240,7 +46244,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="450" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A450" t="s">
         <v>77</v>
       </c>
@@ -46344,7 +46348,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="451" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A451" t="s">
         <v>82</v>
       </c>
@@ -46406,7 +46410,7 @@
         <v>19.237896426598439</v>
       </c>
     </row>
-    <row r="452" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A452" t="s">
         <v>87</v>
       </c>
@@ -46510,7 +46514,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="453" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A453" t="s">
         <v>90</v>
       </c>
@@ -46572,7 +46576,7 @@
         <v>25.86421605751698</v>
       </c>
     </row>
-    <row r="454" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A454" t="s">
         <v>95</v>
       </c>
@@ -46676,7 +46680,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="455" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A455" t="s">
         <v>100</v>
       </c>
@@ -46780,7 +46784,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="456" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A456" t="s">
         <v>105</v>
       </c>
@@ -46884,7 +46888,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="457" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A457" t="s">
         <v>110</v>
       </c>
@@ -46988,7 +46992,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="458" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A458" t="s">
         <v>115</v>
       </c>
@@ -47092,7 +47096,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="459" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A459" t="s">
         <v>120</v>
       </c>
@@ -47196,7 +47200,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="460" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A460" t="s">
         <v>125</v>
       </c>
@@ -47258,7 +47262,7 @@
         <v>12.672893190610489</v>
       </c>
     </row>
-    <row r="461" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A461" t="s">
         <v>130</v>
       </c>
@@ -47362,7 +47366,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="462" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A462" t="s">
         <v>135</v>
       </c>
@@ -47466,7 +47470,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="463" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A463" t="s">
         <v>140</v>
       </c>
@@ -47570,7 +47574,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="464" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A464" t="s">
         <v>34</v>
       </c>
@@ -47638,7 +47642,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="465" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A465" t="s">
         <v>40</v>
       </c>
@@ -47700,7 +47704,7 @@
         <v>39.108508993326993</v>
       </c>
     </row>
-    <row r="466" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A466" t="s">
         <v>46</v>
       </c>
@@ -47762,7 +47766,7 @@
         <v>35.407738869034993</v>
       </c>
     </row>
-    <row r="467" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A467" t="s">
         <v>51</v>
       </c>
@@ -47824,7 +47828,7 @@
         <v>32.481139760497449</v>
       </c>
     </row>
-    <row r="468" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A468" t="s">
         <v>56</v>
       </c>
@@ -47892,7 +47896,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="469" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A469" t="s">
         <v>61</v>
       </c>
@@ -47960,7 +47964,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="470" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A470" t="s">
         <v>66</v>
       </c>
@@ -48022,7 +48026,7 @@
         <v>19.361800923249969</v>
       </c>
     </row>
-    <row r="471" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A471" t="s">
         <v>72</v>
       </c>
@@ -48084,7 +48088,7 @@
         <v>24.023631241247589</v>
       </c>
     </row>
-    <row r="472" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A472" t="s">
         <v>77</v>
       </c>
@@ -48146,7 +48150,7 @@
         <v>36.853617381507327</v>
       </c>
     </row>
-    <row r="473" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A473" t="s">
         <v>82</v>
       </c>
@@ -48208,7 +48212,7 @@
         <v>22.253904736650799</v>
       </c>
     </row>
-    <row r="474" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A474" t="s">
         <v>87</v>
       </c>
@@ -48270,7 +48274,7 @@
         <v>19.646738147806339</v>
       </c>
     </row>
-    <row r="475" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A475" t="s">
         <v>90</v>
       </c>
@@ -48332,7 +48336,7 @@
         <v>26.853716057516991</v>
       </c>
     </row>
-    <row r="476" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A476" t="s">
         <v>95</v>
       </c>
@@ -48394,7 +48398,7 @@
         <v>27.343293748446321</v>
       </c>
     </row>
-    <row r="477" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A477" t="s">
         <v>100</v>
       </c>
@@ -48456,7 +48460,7 @@
         <v>33.261778115830651</v>
       </c>
     </row>
-    <row r="478" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A478" t="s">
         <v>105</v>
       </c>
@@ -48518,7 +48522,7 @@
         <v>15.60939963309416</v>
       </c>
     </row>
-    <row r="479" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A479" t="s">
         <v>110</v>
       </c>
@@ -48580,7 +48584,7 @@
         <v>25.271722395199951</v>
       </c>
     </row>
-    <row r="480" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
       <c r="A480" t="s">
         <v>115</v>
       </c>
@@ -48642,7 +48646,7 @@
         <v>19.189616533742861</v>
       </c>
     </row>
-    <row r="481" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A481" t="s">
         <v>120</v>
       </c>
@@ -48704,7 +48708,7 @@
         <v>27.467828307217061</v>
       </c>
     </row>
-    <row r="482" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A482" t="s">
         <v>125</v>
       </c>
@@ -48766,7 +48770,7 @@
         <v>14.788953216153271</v>
       </c>
     </row>
-    <row r="483" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A483" t="s">
         <v>130</v>
       </c>
@@ -48828,7 +48832,7 @@
         <v>32.631853370886333</v>
       </c>
     </row>
-    <row r="484" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A484" t="s">
         <v>135</v>
       </c>
@@ -48890,7 +48894,7 @@
         <v>23.91720725547675</v>
       </c>
     </row>
-    <row r="485" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A485" t="s">
         <v>140</v>
       </c>
@@ -48953,6 +48957,13 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:AH485" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="El Salvador"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AH485">
     <sortCondition ref="H1:H485"/>
   </sortState>
